--- a/docs/PTA2_DDC_30/PTA2_DDC_30_14.08.2024_output.xlsx
+++ b/docs/PTA2_DDC_30/PTA2_DDC_30_14.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:N118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,2893 +505,3431 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731432682.6108613</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731432682.7120893</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432682.6108613.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432682.7120893.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>283.15</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>283.43</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.2800000000000296</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731432682.9635718</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731432683.3986068</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432682.9635718.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432683.3986068.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>283.04</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>283.31</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.2699999999999818</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731432683.659405</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731432684.1891944</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432683.659405.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432684.1891944.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>283.62</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>283.17</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.4499999999999886</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731432684.4495924</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731432684.6529946</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432684.4495924.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432684.6529946.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>283.07</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>283.39</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731432685.0398903</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731432685.3973725</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432685.0398903.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432685.3973725.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>283.09</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>283.3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.2100000000000364</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731432685.5069573</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731432685.7766783</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432685.5069573.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432685.7766783.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>283.48</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>283.33</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1500000000000341</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731432686.2809215</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731432687.1891904</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432686.2809215.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432687.1891904.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>283.15</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>282.95</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-0.1999999999999886</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731432687.2606554</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731432687.8017812</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432687.2606554.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731432687.8017812.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>282.53</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>282.69</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.160000000000025</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731432688.5129519</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731432688.5957365</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432688.5129519.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432688.5957365.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>283.15</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>283.43</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.2800000000000296</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731432688.8230934</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731432689.1911101</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432688.8230934.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432689.1911101.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>283.04</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>283.31</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.2699999999999818</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731432689.4224904</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731432689.864335</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432689.4224904.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432689.864335.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>283.62</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>283.17</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.4499999999999886</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731432690.0428603</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731432690.2034345</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432690.0428603.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432690.2034345.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>283.07</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>283.39</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731432690.5105784</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731432690.8197792</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432690.5105784.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432690.8197792.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>283.09</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>283.3</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.2100000000000364</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731432690.9065483</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731432691.111386</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432690.9065483.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432691.111386.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>283.48</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>283.33</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.1500000000000341</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731432691.6120203</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731432692.5066545</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432691.6120203.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432692.5066545.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>283.15</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>282.95</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.1999999999999886</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731432692.5726779</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731432693.1002398</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432692.5726779.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432693.1002398.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>282.53</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>282.69</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.160000000000025</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731432693.6501813</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731432693.6979654</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432693.6501813.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432693.6979654.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>283.97</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>284.24</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.2699999999999818</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731432694.578845</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731432695.3339515</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432694.578845.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432695.3339515.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>283.68</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>283.96</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.2799999999999727</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731432695.7618666</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731432696.0513015</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432695.7618666.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432696.0513015.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>284.29</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>284</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.2900000000000205</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731432696.9662786</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731432697.3347797</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432696.9662786.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432697.3347797.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>283.92</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>284.08</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.1599999999999682</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731432698.2619863</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731432699.1532948</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432698.2619863.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/SBER1731432699.1532948.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>283.84</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>283.82</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.01999999999998181</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731432699.2326858</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731432699.2326858.png</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731432699.2326858.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>283.5</v>
       </c>
-      <c r="J24" t="n">
-        <v>283.5</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
+      <c r="L24" t="n">
+        <v>282.91</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-0.589999999999975</v>
+      </c>
+      <c r="N24" t="n">
+        <v>-0.21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731432700.6371639</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731432701.2774885</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432700.6371639.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432701.2774885.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>131.33</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>131.09</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.2400000000000091</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731432701.6898859</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731432702.2268155</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432701.6898859.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432702.2268155.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>130.85</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>131.18</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.3300000000000125</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731432703.1809685</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731432703.2537746</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432703.1809685.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432703.2537746.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>131</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>131.1</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731432703.455566</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731432704.6414025</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432703.455566.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432704.6414025.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>131.19</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>131.21</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.02000000000001023</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731432705.257154</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731432705.9602847</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432705.257154.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432705.9602847.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>131.13</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>131.06</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-0.06999999999999318</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731432706.3313022</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731432706.947726</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432706.3313022.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731432706.947726.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>130.79</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>130.87</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731432707.502323</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731432707.6050136</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731432707.502323.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731432707.6050136.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>6479</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>6478</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-1</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731432708.2290545</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731432708.6416545</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731432708.2290545.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731432708.6416545.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>6462.5</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>6469.5</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>7</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731432708.7964933</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731432709.6375685</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731432708.7964933.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731432709.6375685.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>6479</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>6494</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-15</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731432710.5398731</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731432710.8529215</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731432710.5398731.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731432710.8529215.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>6517.5</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>6510</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>7.5</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731432711.496645</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731432712.1203382</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731432711.496645.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731432712.1203382.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>6504.5</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>6493</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-11.5</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731432712.479119</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731432712.479119.png</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731432712.479119.png</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>6466.5</v>
       </c>
-      <c r="J36" t="n">
-        <v>6466.5</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
+      <c r="L36" t="n">
+        <v>6461</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731432713.3110373</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731432714.6827655</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731432713.3110373.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731432714.6827655.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>502.9</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>502.15</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.75</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731432714.8814466</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731432715.965827</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731432714.8814466.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731432715.965827.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>502.6</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>503.55</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.9499999999999886</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731432716.5253763</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731432716.9963896</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731432716.5253763.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731432716.9963896.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>503.5</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>503.7</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.1999999999999886</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731432717.217737</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731432717.949402</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731432717.217737.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731432717.949402.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>504.65</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>504.25</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.3999999999999773</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731432718.0748587</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731432720.1379178</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731432718.0748587.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731432720.1379178.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>503.45</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>501.9</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-1.550000000000011</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731432721.4697623</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731432722.7897282</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731432721.4697623.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731432722.7897282.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>225.95</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>225.62</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.3299999999999841</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731432724.2291048</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731432724.5421429</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731432724.2291048.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731432724.5421429.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>225.29</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>225.37</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.08000000000001251</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731432724.6157637</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731432726.0685973</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731432724.6157637.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731432726.0685973.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>224.87</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>224.59</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.2800000000000011</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731432726.1411474</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731432726.1411474.png</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731432726.1411474.png</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>224.64</v>
       </c>
-      <c r="J45" t="n">
-        <v>224.64</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
+      <c r="L45" t="n">
+        <v>224.3</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.339999999999975</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731432726.6401963</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731432726.849134</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731432726.6401963.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731432726.849134.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>1059</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>1062.6</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>3.599999999999909</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731432727.7564828</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731432728.3140068</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731432727.7564828.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731432728.3140068.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>1059.2</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>1061.4</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731432728.6247554</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731432729.7841508</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731432728.6247554.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731432729.7841508.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1061.8</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1063.8</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-2</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731432730.0713034</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731432730.396259</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731432730.0713034.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731432730.396259.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1066.8</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1065.2</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>1.599999999999909</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731432730.9686556</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731432732.358197</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731432730.9686556.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731432732.358197.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1062.2</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1060.2</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-2</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731432733.012101</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731432733.1249566</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731432733.012101.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731432733.1249566.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1057.4</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1059.2</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731432734.3131974</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731432734.5497723</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CNY1731432734.3131974.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CNY1731432734.5497723.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>12.213</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>12.192</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.02099999999999902</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731432735.7564337</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731432735.8084002</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CNY1731432735.7564337.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CNY1731432735.8084002.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>12.186</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>12.2</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.01399999999999935</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731432736.8759627</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731432737.6758442</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/CNY1731432736.8759627.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/CNY1731432737.6758442.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>12.208</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>12.205</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.003000000000000114</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731432737.6908042</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731432737.6908042.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731432737.6908042.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>12.205</v>
       </c>
-      <c r="J55" t="n">
-        <v>12.205</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
+      <c r="L55" t="n">
+        <v>12.088</v>
+      </c>
+      <c r="M55" t="n">
+        <v>-0.1170000000000009</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-0.96</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731432740.7750225</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731432742.0452302</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731432740.7750225.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731432742.0452302.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>127.08</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>126.96</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731432742.2113986</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731432742.9431708</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731432742.2113986.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731432742.9431708.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>127.16</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>127.2</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.04000000000000625</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731432744.0412598</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731432744.271098</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731432744.0412598.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731432744.271098.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>127.5</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>127.38</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.1200000000000045</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731432744.568963</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731432744.568963.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731432744.568963.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>127.3</v>
       </c>
-      <c r="J59" t="n">
-        <v>127.3</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
+      <c r="L59" t="n">
+        <v>126.16</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-1.140000000000001</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.8999999999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731432747.6835983</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731432747.7820215</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432747.6835983.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432747.7820215.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>165.38</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>165.34</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.03999999999999204</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731432747.795982</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731432747.8601046</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432747.795982.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432747.8601046.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>165.34</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>165.34</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,48 +3937,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731432747.874068</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731432747.9473014</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432747.874068.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432747.9473014.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>165.34</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>165.34</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3433,2712 +3995,3216 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731432747.9622607</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731432748.8973656</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432747.9622607.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432748.8973656.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>165.34</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>165.1</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.2400000000000091</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731432749.15735</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731432749.9653895</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432749.15735.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432749.9653895.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>165.32</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>164.98</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.3400000000000034</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.21</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731432750.4052944</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731432751.500994</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432750.4052944.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432751.500994.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>165.36</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>165.2</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.160000000000025</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731432751.7367816</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731432752.0846546</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432751.7367816.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731432752.0846546.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>165.34</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>165.06</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731432752.1988869</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731432752.1988869.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731432752.1988869.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>165.02</v>
       </c>
-      <c r="J67" t="n">
-        <v>165.02</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
+      <c r="L67" t="n">
+        <v>164.16</v>
+      </c>
+      <c r="M67" t="n">
+        <v>-0.8600000000000136</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731432754.96726</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731432755.2122307</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731432754.96726.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731432755.2122307.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>50.4</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>50.38</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.01999999999999602</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731432755.292361</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731432755.3615117</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731432755.292361.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731432755.3615117.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>50.355</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>50.39</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.03500000000000369</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731432755.56713</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731432756.4214807</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731432755.56713.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731432756.4214807.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>50.42</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>50.495</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>-0.07499999999999574</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731432757.6370287</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731432759.3526514</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731432757.6370287.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731432759.3526514.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>50.505</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>50.215</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>-0.2899999999999991</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.5700000000000001</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731432760.2968452</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731432760.6072783</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432760.2968452.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432760.6072783.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>1409.6</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>1409.2</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.3999999999998636</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731432760.8436813</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731432760.9959333</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432760.8436813.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432760.9959333.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>1409</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>1408.2</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>-0.7999999999999545</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731432761.1637433</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731432761.4040973</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432761.1637433.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432761.4040973.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>1405.4</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>1408.2</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>2.799999999999955</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731432761.7032604</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731432762.5447235</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432761.7032604.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432762.5447235.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>1410</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>1408.4</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>1.599999999999909</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731432762.862002</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731432763.9022744</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432762.862002.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432763.9022744.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>1410</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>1408.2</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>1.799999999999955</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0.13</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731432763.9172368</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731432764.0571702</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432763.9172368.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432764.0571702.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>1408.2</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>1408.4</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731432764.6018326</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731432765.2320924</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432764.6018326.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432765.2320924.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>1406.2</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>1404.8</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>-1.400000000000091</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731432765.4246118</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731432766.0372653</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432765.4246118.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731432766.0372653.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>1398.2</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>1401.8</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>3.599999999999909</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731432766.5519028</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731432768.0084553</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432766.5519028.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432768.0084553.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>59.75</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>59.73</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.02000000000000313</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731432768.5503087</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731432769.1013982</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432768.5503087.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432769.1013982.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>59.75</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>59.73</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.02000000000000313</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731432769.4525433</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731432769.7992923</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432769.4525433.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432769.7992923.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>59.71</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>59.77</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731432770.0293367</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731432770.7068892</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432770.0293367.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432770.7068892.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>59.71</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>59.72</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>0.00999999999999801</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731432770.986507</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731432771.6642642</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432770.986507.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432771.6642642.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>59.74</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>59.68</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731432771.8771343</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731432771.920009</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432771.8771343.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432771.920009.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>59.71</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>59.68</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731432772.0144413</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731432773.2240252</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432772.0144413.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731432773.2240252.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>59.64</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>59.55</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.09000000000000341</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731432774.75425</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731432775.2049472</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731432774.75425.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731432775.2049472.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>101.26</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>101.29</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.03000000000000114</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731432775.42192</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731432776.1633544</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731432775.42192.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731432776.1633544.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>101.58</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>101.41</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.1700000000000017</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731432776.978203</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731432777.1875503</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731432776.978203.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731432777.1875503.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>101.71</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>101.69</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.01999999999999602</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731432778.0943336</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731432779.0294032</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731432778.0943336.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731432779.0294032.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>101.52</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>101.51</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>-0.009999999999990905</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731432779.1709027</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731432779.1709027.png</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731432779.1709027.png</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>101.21</v>
       </c>
-      <c r="J91" t="n">
-        <v>101.21</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
+      <c r="L91" t="n">
+        <v>101.06</v>
+      </c>
+      <c r="M91" t="n">
+        <v>-0.1499999999999915</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-0.15</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731432780.938446</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731432781.357537</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/SELG1731432780.938446.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/SELG1731432781.357537.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>57.22</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>57.12</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.1000000000000014</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731432781.3961513</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731432781.4827733</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/SELG1731432781.3961513.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/SELG1731432781.4827733.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>57.03</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>57.18</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>0.1499999999999986</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731432781.5701728</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731432781.7411606</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/SELG1731432781.5701728.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/SELG1731432781.7411606.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>57</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>57.14</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731432782.145803</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731432782.7924132</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/SELG1731432782.145803.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/SELG1731432782.7924132.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>57.2</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>57.16</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.04000000000000625</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731432783.663336</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731432783.9039423</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/SELG1731432783.663336.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/SELG1731432783.9039423.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>57.29</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>57.21</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.07999999999999829</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731432783.9687045</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731432785.35511</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/SELG1731432783.9687045.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/SELG1731432785.35511.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>57.12</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>56.9</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-0.39</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731432786.253459</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731432786.8633518</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432786.253459.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432786.8633518.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>158.8</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>158.32</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>-0.4800000000000182</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731432787.2555547</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731432787.7280047</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432787.2555547.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432787.7280047.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>158.84</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>158.38</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>0.460000000000008</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731432788.2820222</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731432788.5601585</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432788.2820222.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432788.5601585.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>158</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>158.1</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731432789.1782541</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731432789.6836357</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432789.1782541.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432789.6836357.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>157.6</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>157.92</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731432790.4793582</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731432791.1442697</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432790.4793582.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731432791.1442697.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>156.92</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>157.2</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731432792.7680032</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731432795.0533266</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731432792.7680032.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731432795.0533266.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>0.3124</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>0.3106</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>0.001800000000000024</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731432795.8273783</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731432795.8273783.png</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731432795.8273783.png</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>0.3095</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.3095</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0</v>
+      <c r="L104" t="n">
+        <v>0.3093</v>
+      </c>
+      <c r="M104" t="n">
+        <v>-0.000199999999999978</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731432797.7970803</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731432798.553462</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731432797.7970803.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731432798.553462.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>20.906</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>20.9</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>-0.006000000000000227</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731432799.8729434</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731432800.6014476</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731432799.8729434.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731432800.6014476.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>20.836</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>20.843</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>0.00700000000000145</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731432800.7228158</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>1731432800.969062</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731432800.7228158.png</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="H107" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731432800.969062.png</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
+      <c r="I107" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>20.893</v>
       </c>
-      <c r="J107" t="n">
+      <c r="L107" t="n">
         <v>20.851</v>
       </c>
-      <c r="K107" t="n">
+      <c r="M107" t="n">
         <v>0.04200000000000159</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731432802.0509534</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731432803.5209148</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731432802.0509534.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731432803.5209148.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>20.846</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>20.768</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>-0.0779999999999994</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731432804.7839477</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731432805.367291</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731432804.7839477.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731432805.367291.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>692.65</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>692.85</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>0.2000000000000455</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731432805.5163572</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1731432806.2442968</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731432805.5163572.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731432806.2442968.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>693.95</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>691.95</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>2</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0.29</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731432806.2861853</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731432806.9507217</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731432806.2861853.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731432806.9507217.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>692.65</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>692.35</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>-0.2999999999999545</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731432807.3306618</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>1731432808.1349463</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731432807.3306618.png</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731432808.1349463.png</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>693.05</v>
       </c>
-      <c r="J112" t="n">
+      <c r="L112" t="n">
         <v>693.55</v>
       </c>
-      <c r="K112" t="n">
+      <c r="M112" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731432808.3100097</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731432808.3100097.png</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731432808.3100097.png</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>691.95</v>
       </c>
-      <c r="J113" t="n">
-        <v>691.95</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
+      <c r="L113" t="n">
+        <v>690.1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>-1.850000000000023</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-0.27</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731432810.078017</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1731432810.977131</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731432810.078017.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731432810.977131.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>158.48</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>158.53</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1731432811.2174966</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1731432811.8712218</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731432811.2174966.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731432811.8712218.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>158.89</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>158.45</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>0.4399999999999977</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0.28</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1731432812.3320918</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1731432812.4524443</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731432812.3320918.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731432812.4524443.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>158.78</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>158.5</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>0.2800000000000011</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1731432812.978788</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>1731432813.1263955</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731432812.978788.png</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731432813.1263955.png</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>158.9</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>158.85</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>0.05000000000001137</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>1731432813.7596564</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>1731432815.2318184</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731432813.7596564.png</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731432815.2318184.png</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
         <v>158.36</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>156.95</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>-1.410000000000025</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-0.89</v>
       </c>
     </row>
   </sheetData>
@@ -6152,7 +7218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6181,6 +7247,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6189,13 +7265,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.620000000000061</v>
+        <v>2.030000000000086</v>
       </c>
       <c r="C2" t="n">
         <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1871428571428615</v>
+        <v>0.1450000000000062</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
@@ -6213,6 +7295,12 @@
       <c r="D3" t="n">
         <v>1.024999999999949</v>
       </c>
+      <c r="E3" t="n">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -6229,6 +7317,12 @@
       <c r="D4" t="n">
         <v>0.2050000000000125</v>
       </c>
+      <c r="E4" t="n">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -6237,13 +7331,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5800000000000125</v>
+        <v>-0.2800000000000011</v>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07250000000000156</v>
+        <v>-0.03500000000000014</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="6">
@@ -6261,6 +7361,12 @@
       <c r="D6" t="n">
         <v>0.01000000000000004</v>
       </c>
+      <c r="E6" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -6277,6 +7383,12 @@
       <c r="D7" t="n">
         <v>0.1100000000000042</v>
       </c>
+      <c r="E7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -6285,13 +7397,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-13</v>
+        <v>-18.5</v>
       </c>
       <c r="C8" t="n">
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.166666666666667</v>
+        <v>-3.083333333333333</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="9">
@@ -6309,6 +7427,12 @@
       <c r="D9" t="n">
         <v>0.04833333333333437</v>
       </c>
+      <c r="E9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -6325,6 +7449,12 @@
       <c r="D10" t="n">
         <v>0.8666666666666364</v>
       </c>
+      <c r="E10" t="n">
+        <v>0.4899999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6341,6 +7471,12 @@
       <c r="D11" t="n">
         <v>-0.1180000000000007</v>
       </c>
+      <c r="E11" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -6349,13 +7485,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.210000000000008</v>
+        <v>0.06000000000001648</v>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04200000000000159</v>
+        <v>0.0120000000000033</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="13">
@@ -6373,6 +7515,12 @@
       <c r="D13" t="n">
         <v>0.1359999999999957</v>
       </c>
+      <c r="E13" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6381,13 +7529,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.400000000000091</v>
+        <v>-0.4499999999999318</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.2800000000000182</v>
+        <v>-0.08999999999998635</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="15">
@@ -6405,6 +7559,12 @@
       <c r="D15" t="n">
         <v>-0.5300000000000068</v>
       </c>
+      <c r="E15" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.11</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -6421,6 +7581,12 @@
       <c r="D16" t="n">
         <v>-0.008749999999999147</v>
       </c>
+      <c r="E16" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.04</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -6429,13 +7595,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.5299999999999727</v>
+        <v>-0.1899999999999977</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1324999999999932</v>
+        <v>-0.04749999999999943</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.07999999999999999</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="18">
@@ -6453,6 +7625,12 @@
       <c r="D18" t="n">
         <v>-0.0874999999999968</v>
       </c>
+      <c r="E18" t="n">
+        <v>-0.6900000000000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -6461,13 +7639,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.04000000000000625</v>
+        <v>-1.180000000000007</v>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.01000000000000156</v>
+        <v>-0.2950000000000017</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.9299999999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="20">
@@ -6477,13 +7661,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.03799999999999848</v>
+        <v>-0.0790000000000024</v>
       </c>
       <c r="C20" t="n">
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00949999999999962</v>
+        <v>-0.0197500000000006</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.6599999999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="21">
@@ -6493,13 +7683,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.001800000000000024</v>
+        <v>0.001600000000000046</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0009000000000000119</v>
+        <v>0.0008000000000000229</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.26</v>
       </c>
     </row>
     <row r="22">
@@ -6515,6 +7711,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
